--- a/config_6.15/game_activity_config.xlsx
+++ b/config_6.15/game_activity_config.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="175">
   <si>
     <t>line|行号</t>
   </si>
@@ -633,14 +633,26 @@
   <si>
     <t>祈福有礼</t>
   </si>
+  <si>
+    <t>英雄榜单</t>
+  </si>
+  <si>
+    <t>英雄任务</t>
+  </si>
+  <si>
+    <t>"act_ty_task","act_yxrw","panel"</t>
+  </si>
+  <si>
+    <t>"act_ty_task","act_yxrw_cjj","panel"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -697,9 +709,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -718,27 +745,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -752,17 +768,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,6 +815,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -785,26 +830,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -817,32 +846,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -883,7 +895,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,7 +919,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,13 +943,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,37 +1003,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,67 +1021,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,7 +1039,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,13 +1069,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,6 +1104,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1107,26 +1152,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1138,21 +1163,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1183,9 +1193,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1197,10 +1209,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1209,137 +1221,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1789,14 +1801,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H44" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J60" sqref="J60"/>
+      <selection pane="bottomRight" activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4613,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" s="6">
         <v>1623110400</v>
@@ -4657,7 +4669,7 @@
         <v>2</v>
       </c>
       <c r="G63" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="20" t="s">
         <v>66</v>
@@ -4704,7 +4716,7 @@
         <v>3</v>
       </c>
       <c r="G64" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="20" t="s">
         <v>66</v>
@@ -4775,6 +4787,194 @@
         <v>1</v>
       </c>
       <c r="O65" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25" spans="1:15">
+      <c r="A66" s="6">
+        <v>65</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="8">
+        <v>65</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F66" s="6">
+        <v>1</v>
+      </c>
+      <c r="G66" s="6">
+        <v>1</v>
+      </c>
+      <c r="H66" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I66" s="6">
+        <v>1623715200</v>
+      </c>
+      <c r="J66" s="6">
+        <v>1624291199</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="M66" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="N66" s="6">
+        <v>1</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" spans="1:15">
+      <c r="A67" s="6">
+        <v>66</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" s="8">
+        <v>66</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F67" s="6">
+        <v>2</v>
+      </c>
+      <c r="G67" s="6">
+        <v>1</v>
+      </c>
+      <c r="H67" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I67" s="6">
+        <v>1623715200</v>
+      </c>
+      <c r="J67" s="6">
+        <v>1624291199</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="M67" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="N67" s="6">
+        <v>1</v>
+      </c>
+      <c r="O67" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25" spans="1:15">
+      <c r="A68" s="6">
+        <v>67</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" s="8">
+        <v>67</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F68" s="6">
+        <v>3</v>
+      </c>
+      <c r="G68" s="6">
+        <v>1</v>
+      </c>
+      <c r="H68" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I68" s="6">
+        <v>1623715200</v>
+      </c>
+      <c r="J68" s="6">
+        <v>1624291199</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="M68" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="N68" s="6">
+        <v>1</v>
+      </c>
+      <c r="O68" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" spans="1:15">
+      <c r="A69" s="6">
+        <v>68</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="8">
+        <v>68</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F69" s="6">
+        <v>3</v>
+      </c>
+      <c r="G69" s="6">
+        <v>1</v>
+      </c>
+      <c r="H69" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="I69" s="6">
+        <v>1623715200</v>
+      </c>
+      <c r="J69" s="6">
+        <v>1624291199</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="M69" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="N69" s="6">
+        <v>1</v>
+      </c>
+      <c r="O69" s="5" t="s">
         <v>15</v>
       </c>
     </row>

--- a/config_6.15/game_activity_config.xlsx
+++ b/config_6.15/game_activity_config.xlsx
@@ -10,7 +10,7 @@
     <sheet name="config|其他配置" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|其他配置'!$A$1:$O$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|其他配置'!$A$1:$O$69</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -651,9 +651,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -708,22 +708,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -738,7 +732,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,7 +768,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,25 +806,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -791,47 +830,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,7 +846,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,12 +857,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -895,7 +895,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,19 +997,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,67 +1009,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,19 +1033,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,25 +1051,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,6 +1106,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1113,11 +1139,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1137,17 +1169,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1175,32 +1201,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1209,10 +1209,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1221,133 +1221,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1804,11 +1804,11 @@
   <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E44" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L70" sqref="L70"/>
+      <selection pane="bottomRight" activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4772,7 +4772,7 @@
         <v>1623110400</v>
       </c>
       <c r="J65" s="6">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>21</v>
@@ -4979,7 +4979,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O65">
+  <autoFilter ref="A1:O69">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
